--- a/biology/Écologie/Jacques_Blondel_(écologue)/Jacques_Blondel_(écologue).xlsx
+++ b/biology/Écologie/Jacques_Blondel_(écologue)/Jacques_Blondel_(écologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Blondel_(%C3%A9cologue)</t>
+          <t>Jacques_Blondel_(écologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Blondel, né le 4 novembre 1936 à Dijon, est un biologiste français, spécialiste de la biologie des populations et de l’écologie, en particulier l’étude des diversités biologiques à l’échelle des faunes, des peuplements et des populations, en utilisant les oiseaux comme modèle biologique. C’est un pionnier de l’approche d’écologie évolutive en biogéographie. C’est aussi un naturaliste qui œuvre dans de nombreuses instances pour la conservation des espèces naturelles et la compréhension des enjeux récents sur la biodiversité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Blondel_(%C3%A9cologue)</t>
+          <t>Jacques_Blondel_(écologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Formation académique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Blondel nait à Dijon le 4 novembre 1936, deuxième d’une fratrie de neuf enfants[1] et petit-fils du philosophe Maurice Blondel (1861-1949)[2]. Naturaliste dès son enfance, il publie ses premiers articles basés sur ses observations ornithologiques durant son service militaire en Algérie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Blondel nait à Dijon le 4 novembre 1936, deuxième d’une fratrie de neuf enfants et petit-fils du philosophe Maurice Blondel (1861-1949). Naturaliste dès son enfance, il publie ses premiers articles basés sur ses observations ornithologiques durant son service militaire en Algérie.
 Son parcours académique est marqué par son recrutement au CNRS, à la station biologique de la Tour du Valat en Camargue, en 1963. Il obtient son diplôme d’études supérieures à l'université de Dijon en 1967 et une thèse de doctorat d'État en 1969. En 1981 il devient directeur de recherche au CNRS, puis directeur de recherche émérite en 2002.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacques_Blondel_(%C3%A9cologue)</t>
+          <t>Jacques_Blondel_(écologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Fonctions occupées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La thèse de doctorat d’État de Jacques Blondel effectuée sous la direction de François Bourlière porte sur la « Synécologie des passereaux résidents et migrateurs dans un échantillon de la région méditerranéenne française ». À la suite de sa thèse, il est nommé directeur d’un laboratoire nouvellement créé par le CNRS en Camargue, le Centre d’écologie de Camargue, qu’il quitte au bout de quatre ans pour rejoindre l’Institut de botanique de Montpellier puis en 1981, le Centre d’études phytosociologiques et écologiques de Montpellier (CEPE), devenu le Centre d’écologie fonctionnelle et évolutive (CEFE). Il y développe une carrière qui lui vaut une renommée internationale en écologie évolutive[3],[4] et en ornithologie en étudiant les facteurs qui déterminent la diversité biologique à l’échelle des avifaunes, des communautés régionales, et des populations locales de mésanges. La lecture du livre de Robert MacArthur et Edward Wilson (1967) sur la théorie de la biogéographie insulaire entraîne un tournant conceptuel dans les recherches de Jacques Blondel, motivant notamment sa mise en place de l’étude de populations de mésanges sur le continent et en Corse.
-En lien notamment avec François Bourlière et Robert Barbault, Jacques Blondel est un des moteurs de l'émergence des recherches quantitatives sur les vertébrés en France, et de leur participation au développement rapide de la biologie évolutive. Il enseigne notamment durant 40 ans (1971-2010) un cours de biologie des populations et de biogéographie évolutive au troisième cycle « Sciences de l’évolution et écologie » de l'université des sciences et techniques du Languedoc / université Montpellier II. Son ouvrage Biogéographie Évolutive[5] basé sur ces enseignements a inspiré des générations d’étudiants de langue française.
-Jacques Blondel s’intéresse de plus en plus au fil du temps aux problèmes liés à la crise de la biodiversité. Il occupe en particulier la fonction de président de la Commission scientifique de l’Institut français de la biodiversité (2000-2005) et participe à de plusieurs comités comme par exemple le Conseil Scientifique du patrimoine naturel et de la biodiversité rattaché au ministre chargé de l’Environnement ou les Conseils scientifiques de nombreux espaces protégés (parcs nationaux, réserves de biosphère et parcs naturels régionaux). Il est membre du Comité français de l’IUCN. Sa notoriété auprès du grand public vient de ses conférences[6] et textes sur la biodiversité[7] et sa conservation.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La thèse de doctorat d’État de Jacques Blondel effectuée sous la direction de François Bourlière porte sur la « Synécologie des passereaux résidents et migrateurs dans un échantillon de la région méditerranéenne française ». À la suite de sa thèse, il est nommé directeur d’un laboratoire nouvellement créé par le CNRS en Camargue, le Centre d’écologie de Camargue, qu’il quitte au bout de quatre ans pour rejoindre l’Institut de botanique de Montpellier puis en 1981, le Centre d’études phytosociologiques et écologiques de Montpellier (CEPE), devenu le Centre d’écologie fonctionnelle et évolutive (CEFE). Il y développe une carrière qui lui vaut une renommée internationale en écologie évolutive, et en ornithologie en étudiant les facteurs qui déterminent la diversité biologique à l’échelle des avifaunes, des communautés régionales, et des populations locales de mésanges. La lecture du livre de Robert MacArthur et Edward Wilson (1967) sur la théorie de la biogéographie insulaire entraîne un tournant conceptuel dans les recherches de Jacques Blondel, motivant notamment sa mise en place de l’étude de populations de mésanges sur le continent et en Corse.
+En lien notamment avec François Bourlière et Robert Barbault, Jacques Blondel est un des moteurs de l'émergence des recherches quantitatives sur les vertébrés en France, et de leur participation au développement rapide de la biologie évolutive. Il enseigne notamment durant 40 ans (1971-2010) un cours de biologie des populations et de biogéographie évolutive au troisième cycle « Sciences de l’évolution et écologie » de l'université des sciences et techniques du Languedoc / université Montpellier II. Son ouvrage Biogéographie Évolutive basé sur ces enseignements a inspiré des générations d’étudiants de langue française.
+Jacques Blondel s’intéresse de plus en plus au fil du temps aux problèmes liés à la crise de la biodiversité. Il occupe en particulier la fonction de président de la Commission scientifique de l’Institut français de la biodiversité (2000-2005) et participe à de plusieurs comités comme par exemple le Conseil Scientifique du patrimoine naturel et de la biodiversité rattaché au ministre chargé de l’Environnement ou les Conseils scientifiques de nombreux espaces protégés (parcs nationaux, réserves de biosphère et parcs naturels régionaux). Il est membre du Comité français de l’IUCN. Sa notoriété auprès du grand public vient de ses conférences et textes sur la biodiversité et sa conservation.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jacques_Blondel_(%C3%A9cologue)</t>
+          <t>Jacques_Blondel_(écologue)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Domaines d'étude</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Biologie des populations, biogéographie, écologie évolutive, écologie comportementale, protection de la biodiversité.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jacques_Blondel_(%C3%A9cologue)</t>
+          <t>Jacques_Blondel_(écologue)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,8 +627,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ouvrages
-Biogéographie et Écologie, Paris, Masson, 1979
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biogéographie et Écologie, Paris, Masson, 1979
 en collaboration avec P. Isenmann, Guide des oiseaux de Camargue, Lausanne, Delachaux et Niestlé, 1981
 Biogéographie évolutive, Paris, Masson, 1986
 en collaboration avec A. Gosler, J. D. Lebreton, et  McCleery, Population Biology of Passerine Birds. An integrated Approach, Heidelberg, Springer-Verlag, NATO ASI Series G, vol. 24., 513 p., 1990
@@ -620,9 +643,43 @@
 L'Archipel de la vie : essai sur la diversité biologique et une éthique de sa pratique, Buchet-Chastel, 2012
 en collaboration avec Baruol &amp;. R. Vianet (coord.), L’Encyclopédie de la Camargue : nature et culture dans le delta du Rhône, Buchet-Chastel, 2013
 en collaboration avec M. Gauthier-Clerc, M., et F. Mesléard, Sciences de la conservation, Louvain-la-Neuve, De Boeck, 2014
-en collaboration avec J. Lhoir, Changements globaux : défis ou Opportunités pour les oiseaux ?, Paris, Éd. Quae, 2015
-Articles
-Une sélection de publications :
+en collaboration avec J. Lhoir, Changements globaux : défis ou Opportunités pour les oiseaux ?, Paris, Éd. Quae, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Blondel_(écologue)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Blondel_(%C3%A9cologue)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une sélection de publications :
 (en) En collaboration avec B. Hoffmann et F. Courchamp. 2013. «The End of Invasion Biology: intellectual debate does not equate to nonsensical science». Biol. Invasions 16 (5), 977-979.
 (en) En collaboration avec F. Médail, 2009. «Biodiversity and Conservation». Pages 604-638 in J.C. Woodward (ed.). The Physical Geography of the Mediterranean Basin. Oxford University Press, Oxford.
 (en) 2008. «On Humans and wildlife in Mediterranean islands». J. Biogeogr. 35, 509-518
@@ -637,37 +694,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jacques_Blondel_(%C3%A9cologue)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques_Blondel_(écologue)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Blondel_(%C3%A9cologue)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions honorifiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Croix de la Valeur militaire (citation à l'ordre de la Brigade, 1961)
 Médaille d'argent du CNRS (1980)
-Docteur honoris causa de la faculté des sciences de l'université catholique de Louvain (2004)[8]
-Président du Congrès international d'ornithologie[9] (2006)
-Grand prix de la Société française d'écologie (2009)[10]</t>
+Docteur honoris causa de la faculté des sciences de l'université catholique de Louvain (2004)
+Président du Congrès international d'ornithologie (2006)
+Grand prix de la Société française d'écologie (2009)</t>
         </is>
       </c>
     </row>
